--- a/pion_qT/expdata/4002.xlsx
+++ b/pion_qT/expdata/4002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninacao/Desktop/fitpack/database/pion_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CBA496-7501-474A-B58E-3802BF148DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD45FC9A-63AF-2241-BD04-65F09AA789CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{E6E3B163-33F6-E044-A176-E8F274F71224}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>number</t>
   </si>
   <si>
-    <t>d2sigma/dpTdm (sea)</t>
+    <t>d2sigma/dpTdm(sea)</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:S156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G156"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,7 +645,7 @@
       </c>
       <c r="S1" s="17"/>
     </row>
-    <row r="2" spans="1:19" ht="34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
       </c>
       <c r="S2" s="17"/>
     </row>
-    <row r="3" spans="1:19" ht="34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -727,7 +727,7 @@
       </c>
       <c r="S3" s="17"/>
     </row>
-    <row r="4" spans="1:19" ht="34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -768,7 +768,7 @@
       </c>
       <c r="S4" s="17"/>
     </row>
-    <row r="5" spans="1:19" ht="34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -809,7 +809,7 @@
       </c>
       <c r="S5" s="17"/>
     </row>
-    <row r="6" spans="1:19" ht="34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -850,7 +850,7 @@
       </c>
       <c r="S6" s="17"/>
     </row>
-    <row r="7" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -890,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -931,7 +931,7 @@
       </c>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" ht="34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -972,7 +972,7 @@
       </c>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="15">
         <v>118</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="15">
         <v>155</v>
       </c>
